--- a/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Northern Giant Petrel_Prince Edward Islands.xlsx
+++ b/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Northern Giant Petrel_Prince Edward Islands.xlsx
@@ -4286,13 +4286,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C390FF01-2783-458C-9855-035D3EEB485F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3440B00-DEA5-44D7-90A3-077EE3733F26}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26382328-2697-435D-866D-8CE1D1E77D9D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFCCE622-522C-4179-BCD1-7403BFA264C1}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B72D038B-22D7-4947-ADBD-41177B9FAE58}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{159C736B-3285-49D1-9F5F-70D7B15E49E6}"/>
 </file>